--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_3.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,551 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_2</t>
+          <t>model_2_3_18</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9336243944090471</v>
+        <v>0.9569601879013261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7435309764985338</v>
+        <v>0.8134096540674199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8527062613109998</v>
+        <v>0.9090754095271447</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8202834471700953</v>
+        <v>0.6058534914337877</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8347553722186365</v>
+        <v>0.859304766686385</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4438539802182627</v>
+        <v>0.2878074216839442</v>
       </c>
       <c r="H2" t="n">
-        <v>1.71500954108557</v>
+        <v>1.247730502420705</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4916443003347896</v>
+        <v>0.7950736797336758</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8423543736055883</v>
+        <v>0.976277340314452</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6669993369701889</v>
+        <v>0.8856758176772259</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5912460410877149</v>
+        <v>2.203122905934121</v>
       </c>
       <c r="M2" t="n">
-        <v>0.666223671313368</v>
+        <v>0.5364768603434301</v>
       </c>
       <c r="N2" t="n">
-        <v>1.043054446869807</v>
+        <v>1.027917715955897</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6945861922743005</v>
+        <v>0.5593157909484473</v>
       </c>
       <c r="P2" t="n">
-        <v>123.6245192880458</v>
+        <v>124.4909273944347</v>
       </c>
       <c r="Q2" t="n">
-        <v>197.9759446050061</v>
+        <v>198.842352711395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_1</t>
+          <t>model_2_3_19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9313793764908861</v>
+        <v>0.9561334439290863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.742886678297328</v>
+        <v>0.8134006304003449</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8717163893353683</v>
+        <v>0.907293467201701</v>
       </c>
       <c r="E3" t="n">
-        <v>0.858536939618137</v>
+        <v>0.5960872365363462</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8648254186361024</v>
+        <v>0.8561456516927886</v>
       </c>
       <c r="G3" t="n">
-        <v>0.458866425374363</v>
+        <v>0.2933358624331183</v>
       </c>
       <c r="H3" t="n">
-        <v>1.719317966123754</v>
+        <v>1.247790843723986</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4281913581051861</v>
+        <v>0.8106555529584625</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6630553821554559</v>
+        <v>1.000467769885403</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5456235240775015</v>
+        <v>0.905562431382561</v>
       </c>
       <c r="L3" t="n">
-        <v>0.596123876634516</v>
+        <v>2.209225284698217</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6773968005344895</v>
+        <v>0.5416048951340066</v>
       </c>
       <c r="N3" t="n">
-        <v>1.044510674708614</v>
+        <v>1.028453982316268</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7062349847379311</v>
+        <v>0.564662136796554</v>
       </c>
       <c r="P3" t="n">
-        <v>123.5579922470603</v>
+        <v>124.4528740765682</v>
       </c>
       <c r="Q3" t="n">
-        <v>197.9094175640206</v>
+        <v>198.8042993935284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_3</t>
+          <t>model_2_3_17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9344567373142244</v>
+        <v>0.957861429671379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7428482341581568</v>
+        <v>0.8133975326298002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8369181921629257</v>
+        <v>0.9110762483180073</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7807601004783087</v>
+        <v>0.6165992195414145</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8052801889733149</v>
+        <v>0.8628086629884387</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4382880993787555</v>
+        <v>0.2817808138177637</v>
       </c>
       <c r="H4" t="n">
-        <v>1.719575042259411</v>
+        <v>1.247811558529882</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5443424956486533</v>
+        <v>0.7775777058532115</v>
       </c>
       <c r="J4" t="n">
-        <v>1.027605333637449</v>
+        <v>0.9496608141531051</v>
       </c>
       <c r="K4" t="n">
-        <v>0.785974022838443</v>
+        <v>0.8636188072918044</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5811161313227358</v>
+        <v>2.195692531822752</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6620333068500069</v>
+        <v>0.5308303060468229</v>
       </c>
       <c r="N4" t="n">
-        <v>1.042514548769152</v>
+        <v>1.027333126699646</v>
       </c>
       <c r="O4" t="n">
-        <v>0.690217435320484</v>
+        <v>0.5534288511454548</v>
       </c>
       <c r="P4" t="n">
-        <v>123.6497576473941</v>
+        <v>124.5332515324589</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.0011829643543</v>
+        <v>198.8846768494191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_4</t>
+          <t>model_2_3_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9342362778930661</v>
+        <v>0.9553767918047414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.741173330812716</v>
+        <v>0.8133764146448061</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8239059934008942</v>
+        <v>0.9057052148700558</v>
       </c>
       <c r="E5" t="n">
-        <v>0.74090019090644</v>
+        <v>0.5872208922845933</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7767574505614657</v>
+        <v>0.8532983063273123</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4397623125431636</v>
+        <v>0.2983955986726748</v>
       </c>
       <c r="H5" t="n">
-        <v>1.730775128642595</v>
+        <v>1.247952774592777</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5877752539798392</v>
+        <v>0.8245437389717253</v>
       </c>
       <c r="J5" t="n">
-        <v>1.214433806756257</v>
+        <v>1.022429174582102</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9011042262508602</v>
+        <v>0.9234864567769139</v>
       </c>
       <c r="L5" t="n">
-        <v>0.567987418027493</v>
+        <v>2.214217136431542</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6631457702067951</v>
+        <v>0.5462559827339879</v>
       </c>
       <c r="N5" t="n">
-        <v>1.042657549474768</v>
+        <v>1.028944783694222</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6913772585454871</v>
+        <v>0.5695112308247451</v>
       </c>
       <c r="P5" t="n">
-        <v>123.6430417935906</v>
+        <v>124.4186703210355</v>
       </c>
       <c r="Q5" t="n">
-        <v>197.9944671105508</v>
+        <v>198.7700956379958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_0</t>
+          <t>model_2_3_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9272669116085511</v>
+        <v>0.9588411172126691</v>
       </c>
       <c r="C6" t="n">
-        <v>0.740520559165556</v>
+        <v>0.8133563142943452</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8941800599665722</v>
+        <v>0.9133237518677143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8945202750229263</v>
+        <v>0.6284103082605795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8950054220703799</v>
+        <v>0.8666933555146702</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4863664969786963</v>
+        <v>0.2752296387181106</v>
       </c>
       <c r="H6" t="n">
-        <v>1.73514021565289</v>
+        <v>1.248087185728863</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3532110111554199</v>
+        <v>0.7579248164842617</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4943969059168811</v>
+        <v>0.920405453442413</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4238038767419439</v>
+        <v>0.8391646865048873</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5940081622198538</v>
+        <v>2.186635935836294</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6973998114272015</v>
+        <v>0.524623330321966</v>
       </c>
       <c r="N6" t="n">
-        <v>1.047178219497156</v>
+        <v>1.02669765369989</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7270895652162869</v>
+        <v>0.5469576316137795</v>
       </c>
       <c r="P6" t="n">
-        <v>123.4415856605386</v>
+        <v>124.5802989597834</v>
       </c>
       <c r="Q6" t="n">
-        <v>197.7930109774989</v>
+        <v>198.9317242767437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_5</t>
+          <t>model_2_3_21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9332513763102088</v>
+        <v>0.9546857984555362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.738787237841233</v>
+        <v>0.8133418289296233</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8131847339828883</v>
+        <v>0.9042888505002686</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7015263845764125</v>
+        <v>0.5791802828277391</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7494639707287831</v>
+        <v>0.8507327483159178</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4463483539627848</v>
+        <v>0.3030162743805416</v>
       </c>
       <c r="H7" t="n">
-        <v>1.746730943329849</v>
+        <v>1.248184049429458</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6235612020601085</v>
+        <v>0.8369288817089535</v>
       </c>
       <c r="J7" t="n">
-        <v>1.398983852065601</v>
+        <v>1.042345283552851</v>
       </c>
       <c r="K7" t="n">
-        <v>1.011272606284947</v>
+        <v>0.9396366321312933</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5540619800272836</v>
+        <v>2.218310403254788</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6680930728295158</v>
+        <v>0.5504691402617785</v>
       </c>
       <c r="N7" t="n">
-        <v>1.04329640455554</v>
+        <v>1.029392995596409</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6965351780831853</v>
+        <v>0.5739037511909323</v>
       </c>
       <c r="P7" t="n">
-        <v>123.613311138272</v>
+        <v>124.3879375281766</v>
       </c>
       <c r="Q7" t="n">
-        <v>197.9647364552322</v>
+        <v>198.7393628451368</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_6</t>
+          <t>model_2_3_22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.93173355743776</v>
+        <v>0.9540556248097768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7359208457584903</v>
+        <v>0.8133002807384501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8043129063665326</v>
+        <v>0.9030244027466439</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6633227582715726</v>
+        <v>0.5718923011687946</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7236146391352654</v>
+        <v>0.8484207997433413</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4564980157517634</v>
+        <v>0.3072302484514179</v>
       </c>
       <c r="H8" t="n">
-        <v>1.765898520385673</v>
+        <v>1.248461882375145</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6531740255240009</v>
+        <v>0.8479856170000034</v>
       </c>
       <c r="J8" t="n">
-        <v>1.578049114551097</v>
+        <v>1.06039717845898</v>
       </c>
       <c r="K8" t="n">
-        <v>1.115611774616708</v>
+        <v>0.9541903372868908</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5385663262930912</v>
+        <v>2.221656237533892</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6756463688585644</v>
+        <v>0.5542835451746857</v>
       </c>
       <c r="N8" t="n">
-        <v>1.044280935716048</v>
+        <v>1.029801756880145</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7044100335616689</v>
+        <v>0.5778805432178886</v>
       </c>
       <c r="P8" t="n">
-        <v>123.5683418512241</v>
+        <v>124.3603156350897</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.9197671681844</v>
+        <v>198.71174095205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_7</t>
+          <t>model_2_3_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.929866436750142</v>
+        <v>0.9599025478869129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7327591028988441</v>
+        <v>0.8132757300343295</v>
       </c>
       <c r="D9" t="n">
-        <v>0.796916918681038</v>
+        <v>0.9158500916116157</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6268210534813143</v>
+        <v>0.6413726973306668</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6993637367715178</v>
+        <v>0.8709981829772312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4689834603871649</v>
+        <v>0.268131846912004</v>
       </c>
       <c r="H9" t="n">
-        <v>1.787041109446614</v>
+        <v>1.248626053046644</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6778607177302275</v>
+        <v>0.735833694313734</v>
       </c>
       <c r="J9" t="n">
-        <v>1.749137254124058</v>
+        <v>0.8882983905852518</v>
       </c>
       <c r="K9" t="n">
-        <v>1.213498985927143</v>
+        <v>0.8120658183124982</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5221712173373246</v>
+        <v>2.175623882946118</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6848236710184344</v>
+        <v>0.5178144908285245</v>
       </c>
       <c r="N9" t="n">
-        <v>1.045492041026935</v>
+        <v>1.026009158127408</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7139780324741188</v>
+        <v>0.5398589257268614</v>
       </c>
       <c r="P9" t="n">
-        <v>123.5143755537134</v>
+        <v>124.6325529067147</v>
       </c>
       <c r="Q9" t="n">
-        <v>197.8658008706737</v>
+        <v>198.983978223675</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_8</t>
+          <t>model_2_3_23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9277927340900659</v>
+        <v>0.9534819554683824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7294462206756258</v>
+        <v>0.813254520650928</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7906914472089012</v>
+        <v>0.9018957004482895</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5923989021304161</v>
+        <v>0.5652913201036307</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6768042081970025</v>
+        <v>0.8463380269039718</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4828503196236168</v>
+        <v>0.3110663779788261</v>
       </c>
       <c r="H10" t="n">
-        <v>1.809194368127694</v>
+        <v>1.248767880291111</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6986404032308812</v>
+        <v>0.8578553506442184</v>
       </c>
       <c r="J10" t="n">
-        <v>1.91047826185408</v>
+        <v>1.076747413962034</v>
       </c>
       <c r="K10" t="n">
-        <v>1.304559075465853</v>
+        <v>0.9673013823031263</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5053943005963599</v>
+        <v>2.224390743861582</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6948743193007041</v>
+        <v>0.5577332498415584</v>
       </c>
       <c r="N10" t="n">
-        <v>1.046837145455092</v>
+        <v>1.030173866723211</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7244565576614749</v>
+        <v>0.581477108954303</v>
       </c>
       <c r="P10" t="n">
-        <v>123.4560971412345</v>
+        <v>124.3354979111224</v>
       </c>
       <c r="Q10" t="n">
-        <v>197.8075224581947</v>
+        <v>198.6869232280826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>model_2_3_24</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9529604150513356</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8132066630630819</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9008871872277284</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5593178494437534</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8444623888972256</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3145539211490918</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.249087904201401</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8666741125782738</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.091543343702693</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9791085145432677</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.226618897247298</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5608510685994026</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.030512163209945</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5847276597114434</v>
+      </c>
+      <c r="P11" t="n">
+        <v>124.313199534286</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>198.6646248512463</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_14</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9610476034645085</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8131424424964298</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.918689792860004</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6555754651459809</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8757647035329393</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2604748549921262</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.249517347426313</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.711002438993706</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8531189837238837</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.7820605943171548</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.162256877366869</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5103673725779561</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.025266419374373</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5320947682347064</v>
+      </c>
+      <c r="P12" t="n">
+        <v>124.6904978967791</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>199.0419232137394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_13</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9622763311278955</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8129389461535315</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9218817512590678</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.671102918292303</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8810364981515419</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2522583474492865</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.250878128408288</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6830909345623707</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8146584104850321</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.7488746725237013</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.146056655920196</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5022532702225905</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.02446940683596</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.5236352317435654</v>
+      </c>
+      <c r="P13" t="n">
+        <v>124.7546030566531</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>199.1060283736133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9635861455421587</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.812642622862925</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9254679981605293</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6880364941887527</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8868588015910002</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2434996124299675</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.252859643617017</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6517316454465215</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7727149552497266</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.712223300348124</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.126472207112406</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4934567989499866</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.023619797486167</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.514464276477681</v>
+      </c>
+      <c r="P14" t="n">
+        <v>124.8252798562483</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>199.1767051732085</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_11</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9649700726243937</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8122237152532814</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9294925307415901</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7064423659498251</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8932752317731671</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2342452856586634</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.255660880731595</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6165398462666569</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7271247111690787</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.6718319031819364</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.102864036734329</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.483988931338996</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.022722115054447</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5045933421413027</v>
+      </c>
+      <c r="P15" t="n">
+        <v>124.9027729666453</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>199.2541982836055</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_10</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9664151815282133</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8116429267947108</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.933999183560289</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7263664377543846</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9003250859541663</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2245818357647074</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.259544615828342</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5771322336372139</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6777739763361155</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.6274531049866647</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.074498515247438</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4739006602281826</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.021784747116835</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4940755924437019</v>
+      </c>
+      <c r="P16" t="n">
+        <v>124.9870302273167</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>199.338455544277</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>model_2_3_9</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.9256201622065968</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7260911236203959</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7853935837550594</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5602890229498521</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.6559705960253404</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4973783178121483</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.831629917584818</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.716323872971118</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.060981355407711</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.388652614189414</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.4886538619879481</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7052505354922805</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.048246381271397</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.7352745108580553</v>
-      </c>
-      <c r="P11" t="n">
-        <v>123.3968086792242</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>197.7482339961845</v>
+      <c r="B17" t="n">
+        <v>0.9678995438506989</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.810848653086975</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9390284325265703</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.747814637583481</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9080377376404636</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.214655898079386</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.264855927769265</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5331548732650293</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6246480674961402</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5789019996802424</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.040587444794233</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4633097215463819</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.020821917502249</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4830337755759515</v>
+      </c>
+      <c r="P17" t="n">
+        <v>125.0774380140612</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>199.4288633310215</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_8</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9693885481939346</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8097719368143261</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.944610722132881</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7707354996673541</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9164243454656953</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2046989191799339</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.272055934442291</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4843415487777054</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5678744622843134</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.526108343717546</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.000307039451466</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4524366465925742</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.019856076847178</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.4716978113109921</v>
+      </c>
+      <c r="P18" t="n">
+        <v>125.1724301326974</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>199.5238554496576</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_7</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9708292834129469</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8083213376280567</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9507564524325524</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7949873523261903</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9254641693369521</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1950647161364229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.28175609788027</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4306013187849265</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5078040729826427</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4692026958837846</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.952896707495693</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4416613138326957</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.018921545894305</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4604637503275118</v>
+      </c>
+      <c r="P19" t="n">
+        <v>125.2688477957098</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>199.62027311267</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_6</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9721432993178259</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8063742711681514</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9574411362281046</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8202991741919854</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9350868042657494</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.18627788573001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.294776140263073</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3721483071678722</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4451082033184814</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4086282552431768</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.897931196723008</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4315992188709452</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.018069211253302</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.4499732911518315</v>
+      </c>
+      <c r="P20" t="n">
+        <v>125.3610314217787</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>199.712456738739</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_5</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9732170930855686</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.803767696766738</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9645838307616119</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8462211998119709</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9451475427460693</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1790974218607496</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.312206315287496</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.309690303272163</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3809008954321267</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3452959548507955</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.835303094667138</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4231990333882505</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.017372696376929</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.4412154923823574</v>
+      </c>
+      <c r="P21" t="n">
+        <v>125.4396507299795</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>199.7910760469398</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9738912851717523</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8002860749211165</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9720217953557514</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8720654725746961</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.955398216620821</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1745890962760699</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.335487936600562</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.244650363594274</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3168861767252729</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2807680120630933</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.765940763818861</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4178386007492245</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.016935382591296</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4356268550282628</v>
+      </c>
+      <c r="P22" t="n">
+        <v>125.4906401745257</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>199.8420654914859</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9739491405391919</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7956508198900918</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9794812624446994</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8968637785084861</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9654579041698008</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.174202217167602</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.366483908336411</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1794223992293131</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2554622553275839</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2174423272784485</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.692177810595396</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.4173753911859227</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.016897854785389</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.4351439256748752</v>
+      </c>
+      <c r="P23" t="n">
+        <v>125.4950769738635</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>199.8465022908237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9731072200638831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7895139964132192</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9865600970016016</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9193319411986802</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9747948788569325</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1798321432626792</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.407520875183732</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1175228073794889</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1998099594523045</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1586661164865459</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.618076712694204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4240662015094804</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.017443965363968</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.4421195776457935</v>
+      </c>
+      <c r="P24" t="n">
+        <v>125.43146280121</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>199.7828881181703</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9710113898660797</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7814625758470545</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.992731040742693</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9378887616771145</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9827317145047902</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1938469694458014</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.461360761583058</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06356210299640161</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1538458244222077</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1087037742192913</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.549660487855955</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.44028055765137</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.01880342278957</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.4590242124969878</v>
+      </c>
+      <c r="P25" t="n">
+        <v>125.2813724969771</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>199.6327978139374</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_2_3_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9672386466621535</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7710356567296126</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9973685666258237</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9507428857432335</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9884815314406419</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2190753206223406</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.53108561773294</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02301009446289331</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1220069275079794</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.07250870423562328</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.491275240494933</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4680548265132415</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.021250607570495</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.4879808894849716</v>
+      </c>
+      <c r="P26" t="n">
+        <v>125.0366793570271</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>199.3881046739874</v>
       </c>
     </row>
   </sheetData>
